--- a/models/179bus_psse/179bus.xlsx
+++ b/models/179bus_psse/179bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwang2\Documents\GitHub\emt\models\179bus_psse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxiong3\Desktop\ParaEMT_perturbation\models\179bus_psse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B662D31-74DF-4215-9312-D67C67568A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1781ED1C-0BD3-4940-AAAE-F799BE4473CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="3375" windowWidth="21600" windowHeight="11325" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="780" windowWidth="23490" windowHeight="13020" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gen" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="reecb" sheetId="5" r:id="rId6"/>
     <sheet name="repca" sheetId="6" r:id="rId7"/>
     <sheet name="pll" sheetId="8" r:id="rId8"/>
+    <sheet name="vm" sheetId="9" r:id="rId9"/>
+    <sheet name="mea" sheetId="11" r:id="rId10"/>
+    <sheet name="ibrepri" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="154">
   <si>
     <t>D</t>
   </si>
@@ -274,9 +277,6 @@
     <t>Fflag, 0: disable frequency control, 1: enable</t>
   </si>
   <si>
-    <t>'0'</t>
-  </si>
-  <si>
     <t>Tfltr, Voltage or reactive power measurement filter time constant (s)</t>
   </si>
   <si>
@@ -358,9 +358,6 @@
     <t>Dup, droop for under-frequency conditions (pu)</t>
   </si>
   <si>
-    <t>RE'</t>
-  </si>
-  <si>
     <t>fbase</t>
   </si>
   <si>
@@ -376,9 +373,6 @@
     <t>SEXS</t>
   </si>
   <si>
-    <t>IEEEST</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -421,28 +415,88 @@
     <t>VCL</t>
   </si>
   <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>Ambient temperature load limit</t>
-  </si>
-  <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>VMAX</t>
-  </si>
-  <si>
-    <t>VMIN</t>
-  </si>
-  <si>
-    <t>Dturb</t>
-  </si>
-  <si>
     <t>ke</t>
   </si>
   <si>
     <t>te</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>Vdcbase</t>
+  </si>
+  <si>
+    <t>KpI</t>
+  </si>
+  <si>
+    <t>KiI</t>
+  </si>
+  <si>
+    <t>KpPLL</t>
+  </si>
+  <si>
+    <t>KiPLL</t>
+  </si>
+  <si>
+    <t>KpP</t>
+  </si>
+  <si>
+    <t>KiP</t>
+  </si>
+  <si>
+    <t>KpQ</t>
+  </si>
+  <si>
+    <t>KiQ</t>
+  </si>
+  <si>
+    <t>Imax</t>
+  </si>
+  <si>
+    <t>Pqflag</t>
+  </si>
+  <si>
+    <t>Vdip</t>
+  </si>
+  <si>
+    <t>Vup</t>
+  </si>
+  <si>
+    <t>Rchoke</t>
+  </si>
+  <si>
+    <t>Lchoke</t>
+  </si>
+  <si>
+    <t>Cfilt</t>
+  </si>
+  <si>
+    <t>Rdamp</t>
+  </si>
+  <si>
+    <t>TGOV1</t>
+  </si>
+  <si>
+    <t>T1(&gt;0)(sec)</t>
+  </si>
+  <si>
+    <t>V MAX</t>
+  </si>
+  <si>
+    <t>V MIN</t>
+  </si>
+  <si>
+    <t>T2(sec)</t>
+  </si>
+  <si>
+    <t>T3(&gt;0)(sec)</t>
+  </si>
+  <si>
+    <t>Dt</t>
   </si>
 </sst>
 </file>
@@ -478,12 +532,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,7 +822,7 @@
   <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,184 +923,184 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W2" t="s">
+        <v>128</v>
+      </c>
+      <c r="X2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="V3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="X3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Y3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AA3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -2426,6 +2481,1215 @@
       </c>
       <c r="AD18">
         <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F81739-FD39-4EE5-852B-150AFE49EEC6}">
+  <dimension ref="A1:FX2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:180" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+      <c r="CC1">
+        <v>80</v>
+      </c>
+      <c r="CD1">
+        <v>81</v>
+      </c>
+      <c r="CE1">
+        <v>82</v>
+      </c>
+      <c r="CF1">
+        <v>83</v>
+      </c>
+      <c r="CG1">
+        <v>84</v>
+      </c>
+      <c r="CH1">
+        <v>85</v>
+      </c>
+      <c r="CI1">
+        <v>86</v>
+      </c>
+      <c r="CJ1">
+        <v>87</v>
+      </c>
+      <c r="CK1">
+        <v>88</v>
+      </c>
+      <c r="CL1">
+        <v>89</v>
+      </c>
+      <c r="CM1">
+        <v>90</v>
+      </c>
+      <c r="CN1">
+        <v>91</v>
+      </c>
+      <c r="CO1">
+        <v>92</v>
+      </c>
+      <c r="CP1">
+        <v>93</v>
+      </c>
+      <c r="CQ1">
+        <v>94</v>
+      </c>
+      <c r="CR1">
+        <v>95</v>
+      </c>
+      <c r="CS1">
+        <v>96</v>
+      </c>
+      <c r="CT1">
+        <v>97</v>
+      </c>
+      <c r="CU1">
+        <v>98</v>
+      </c>
+      <c r="CV1">
+        <v>99</v>
+      </c>
+      <c r="CW1">
+        <v>100</v>
+      </c>
+      <c r="CX1">
+        <v>101</v>
+      </c>
+      <c r="CY1">
+        <v>102</v>
+      </c>
+      <c r="CZ1">
+        <v>103</v>
+      </c>
+      <c r="DA1">
+        <v>104</v>
+      </c>
+      <c r="DB1">
+        <v>105</v>
+      </c>
+      <c r="DC1">
+        <v>106</v>
+      </c>
+      <c r="DD1">
+        <v>107</v>
+      </c>
+      <c r="DE1">
+        <v>108</v>
+      </c>
+      <c r="DF1">
+        <v>109</v>
+      </c>
+      <c r="DG1">
+        <v>110</v>
+      </c>
+      <c r="DH1">
+        <v>111</v>
+      </c>
+      <c r="DI1">
+        <v>112</v>
+      </c>
+      <c r="DJ1">
+        <v>113</v>
+      </c>
+      <c r="DK1">
+        <v>114</v>
+      </c>
+      <c r="DL1">
+        <v>115</v>
+      </c>
+      <c r="DM1">
+        <v>116</v>
+      </c>
+      <c r="DN1">
+        <v>117</v>
+      </c>
+      <c r="DO1">
+        <v>118</v>
+      </c>
+      <c r="DP1">
+        <v>119</v>
+      </c>
+      <c r="DQ1">
+        <v>120</v>
+      </c>
+      <c r="DR1">
+        <v>121</v>
+      </c>
+      <c r="DS1">
+        <v>122</v>
+      </c>
+      <c r="DT1">
+        <v>123</v>
+      </c>
+      <c r="DU1">
+        <v>124</v>
+      </c>
+      <c r="DV1">
+        <v>125</v>
+      </c>
+      <c r="DW1">
+        <v>126</v>
+      </c>
+      <c r="DX1">
+        <v>127</v>
+      </c>
+      <c r="DY1">
+        <v>128</v>
+      </c>
+      <c r="DZ1">
+        <v>129</v>
+      </c>
+      <c r="EA1">
+        <v>130</v>
+      </c>
+      <c r="EB1">
+        <v>131</v>
+      </c>
+      <c r="EC1">
+        <v>132</v>
+      </c>
+      <c r="ED1">
+        <v>133</v>
+      </c>
+      <c r="EE1">
+        <v>134</v>
+      </c>
+      <c r="EF1">
+        <v>135</v>
+      </c>
+      <c r="EG1">
+        <v>136</v>
+      </c>
+      <c r="EH1">
+        <v>137</v>
+      </c>
+      <c r="EI1">
+        <v>138</v>
+      </c>
+      <c r="EJ1">
+        <v>139</v>
+      </c>
+      <c r="EK1">
+        <v>140</v>
+      </c>
+      <c r="EL1">
+        <v>141</v>
+      </c>
+      <c r="EM1">
+        <v>142</v>
+      </c>
+      <c r="EN1">
+        <v>143</v>
+      </c>
+      <c r="EO1">
+        <v>144</v>
+      </c>
+      <c r="EP1">
+        <v>145</v>
+      </c>
+      <c r="EQ1">
+        <v>146</v>
+      </c>
+      <c r="ER1">
+        <v>147</v>
+      </c>
+      <c r="ES1">
+        <v>148</v>
+      </c>
+      <c r="ET1">
+        <v>149</v>
+      </c>
+      <c r="EU1">
+        <v>150</v>
+      </c>
+      <c r="EV1">
+        <v>151</v>
+      </c>
+      <c r="EW1">
+        <v>152</v>
+      </c>
+      <c r="EX1">
+        <v>153</v>
+      </c>
+      <c r="EY1">
+        <v>154</v>
+      </c>
+      <c r="EZ1">
+        <v>155</v>
+      </c>
+      <c r="FA1">
+        <v>156</v>
+      </c>
+      <c r="FB1">
+        <v>157</v>
+      </c>
+      <c r="FC1">
+        <v>158</v>
+      </c>
+      <c r="FD1">
+        <v>159</v>
+      </c>
+      <c r="FE1">
+        <v>160</v>
+      </c>
+      <c r="FF1">
+        <v>161</v>
+      </c>
+      <c r="FG1">
+        <v>162</v>
+      </c>
+      <c r="FH1">
+        <v>163</v>
+      </c>
+      <c r="FI1">
+        <v>164</v>
+      </c>
+      <c r="FJ1">
+        <v>165</v>
+      </c>
+      <c r="FK1">
+        <v>166</v>
+      </c>
+      <c r="FL1">
+        <v>167</v>
+      </c>
+      <c r="FM1">
+        <v>168</v>
+      </c>
+      <c r="FN1">
+        <v>169</v>
+      </c>
+      <c r="FO1">
+        <v>170</v>
+      </c>
+      <c r="FP1">
+        <v>171</v>
+      </c>
+      <c r="FQ1">
+        <v>172</v>
+      </c>
+      <c r="FR1">
+        <v>173</v>
+      </c>
+      <c r="FS1">
+        <v>174</v>
+      </c>
+      <c r="FT1">
+        <v>175</v>
+      </c>
+      <c r="FU1">
+        <v>176</v>
+      </c>
+      <c r="FV1">
+        <v>177</v>
+      </c>
+      <c r="FW1">
+        <v>178</v>
+      </c>
+      <c r="FX1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:180" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>1</v>
+      </c>
+      <c r="DN2">
+        <v>1</v>
+      </c>
+      <c r="DO2">
+        <v>1</v>
+      </c>
+      <c r="DP2">
+        <v>1</v>
+      </c>
+      <c r="DQ2">
+        <v>1</v>
+      </c>
+      <c r="DR2">
+        <v>1</v>
+      </c>
+      <c r="DS2">
+        <v>1</v>
+      </c>
+      <c r="DT2">
+        <v>1</v>
+      </c>
+      <c r="DU2">
+        <v>1</v>
+      </c>
+      <c r="DV2">
+        <v>1</v>
+      </c>
+      <c r="DW2">
+        <v>1</v>
+      </c>
+      <c r="DX2">
+        <v>1</v>
+      </c>
+      <c r="DY2">
+        <v>1</v>
+      </c>
+      <c r="DZ2">
+        <v>1</v>
+      </c>
+      <c r="EA2">
+        <v>1</v>
+      </c>
+      <c r="EB2">
+        <v>1</v>
+      </c>
+      <c r="EC2">
+        <v>1</v>
+      </c>
+      <c r="ED2">
+        <v>1</v>
+      </c>
+      <c r="EE2">
+        <v>1</v>
+      </c>
+      <c r="EF2">
+        <v>1</v>
+      </c>
+      <c r="EG2">
+        <v>1</v>
+      </c>
+      <c r="EH2">
+        <v>1</v>
+      </c>
+      <c r="EI2">
+        <v>1</v>
+      </c>
+      <c r="EJ2">
+        <v>1</v>
+      </c>
+      <c r="EK2">
+        <v>1</v>
+      </c>
+      <c r="EL2">
+        <v>1</v>
+      </c>
+      <c r="EM2">
+        <v>1</v>
+      </c>
+      <c r="EN2">
+        <v>1</v>
+      </c>
+      <c r="EO2">
+        <v>1</v>
+      </c>
+      <c r="EP2">
+        <v>1</v>
+      </c>
+      <c r="EQ2">
+        <v>1</v>
+      </c>
+      <c r="ER2">
+        <v>1</v>
+      </c>
+      <c r="ES2">
+        <v>1</v>
+      </c>
+      <c r="ET2">
+        <v>1</v>
+      </c>
+      <c r="EU2">
+        <v>1</v>
+      </c>
+      <c r="EV2">
+        <v>1</v>
+      </c>
+      <c r="EW2">
+        <v>1</v>
+      </c>
+      <c r="EX2">
+        <v>1</v>
+      </c>
+      <c r="EY2">
+        <v>1</v>
+      </c>
+      <c r="EZ2">
+        <v>1</v>
+      </c>
+      <c r="FA2">
+        <v>1</v>
+      </c>
+      <c r="FB2">
+        <v>1</v>
+      </c>
+      <c r="FC2">
+        <v>1</v>
+      </c>
+      <c r="FD2">
+        <v>1</v>
+      </c>
+      <c r="FE2">
+        <v>1</v>
+      </c>
+      <c r="FF2">
+        <v>1</v>
+      </c>
+      <c r="FG2">
+        <v>1</v>
+      </c>
+      <c r="FH2">
+        <v>1</v>
+      </c>
+      <c r="FI2">
+        <v>1</v>
+      </c>
+      <c r="FJ2">
+        <v>1</v>
+      </c>
+      <c r="FK2">
+        <v>1</v>
+      </c>
+      <c r="FL2">
+        <v>1</v>
+      </c>
+      <c r="FM2">
+        <v>1</v>
+      </c>
+      <c r="FN2">
+        <v>1</v>
+      </c>
+      <c r="FO2">
+        <v>1</v>
+      </c>
+      <c r="FP2">
+        <v>1</v>
+      </c>
+      <c r="FQ2">
+        <v>1</v>
+      </c>
+      <c r="FR2">
+        <v>1</v>
+      </c>
+      <c r="FS2">
+        <v>1</v>
+      </c>
+      <c r="FT2">
+        <v>1</v>
+      </c>
+      <c r="FU2">
+        <v>1</v>
+      </c>
+      <c r="FV2">
+        <v>1</v>
+      </c>
+      <c r="FW2">
+        <v>1</v>
+      </c>
+      <c r="FX2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C0C6B2-1647-4461-B8C9-D009ECD21330}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2438,7 +3702,7 @@
   <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:AD9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,184 +3803,184 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W2" t="s">
+        <v>128</v>
+      </c>
+      <c r="X2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="U3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="X3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AA3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AB3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AC3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AD3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -3278,10 +4542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF57351-66BB-468C-A11D-2A45E9F27934}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3382,1012 +4646,828 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W2" t="s">
+        <v>128</v>
+      </c>
+      <c r="X2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="C4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="D4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="F4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="H4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="J4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="M4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="O4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="P4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="Q4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="R4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="S4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="T4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="U4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="V4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="W4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="X4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="Y4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="Z4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="AA4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="AB4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="AC4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="AD4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
+      <c r="A5" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Y5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AA5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AB5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AC5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AD5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
+      <c r="A6" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
+      <c r="A7" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>130</v>
+      <c r="A8" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>131</v>
+      <c r="A9" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AA9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AC9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>132</v>
+      <c r="A10" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AD10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -4397,1852 +5477,112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C010A3C-2C46-4D60-9DC0-EDF27367CBD2}">
-  <dimension ref="A1:AD20"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:AD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1">
-        <v>4</v>
-      </c>
-      <c r="C1">
-        <v>6</v>
-      </c>
-      <c r="D1">
-        <v>9</v>
-      </c>
-      <c r="E1">
-        <v>11</v>
-      </c>
-      <c r="F1">
-        <v>13</v>
-      </c>
-      <c r="G1">
-        <v>15</v>
-      </c>
-      <c r="H1">
-        <v>18</v>
-      </c>
-      <c r="I1">
-        <v>30</v>
-      </c>
-      <c r="J1">
-        <v>35</v>
-      </c>
-      <c r="K1">
-        <v>36</v>
-      </c>
-      <c r="L1">
-        <v>40</v>
-      </c>
-      <c r="M1">
-        <v>43</v>
-      </c>
-      <c r="N1">
-        <v>45</v>
-      </c>
-      <c r="O1">
-        <v>47</v>
-      </c>
-      <c r="P1">
-        <v>65</v>
-      </c>
-      <c r="Q1">
-        <v>70</v>
-      </c>
-      <c r="R1">
-        <v>77</v>
-      </c>
-      <c r="S1">
-        <v>79</v>
-      </c>
-      <c r="T1">
-        <v>103</v>
-      </c>
-      <c r="U1">
-        <v>112</v>
-      </c>
-      <c r="V1">
-        <v>116</v>
-      </c>
-      <c r="W1">
-        <v>118</v>
-      </c>
-      <c r="X1">
-        <v>138</v>
-      </c>
-      <c r="Y1">
-        <v>140</v>
-      </c>
-      <c r="Z1">
-        <v>144</v>
-      </c>
-      <c r="AA1">
-        <v>148</v>
-      </c>
-      <c r="AB1">
-        <v>149</v>
-      </c>
-      <c r="AC1">
-        <v>159</v>
-      </c>
-      <c r="AD1">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>114</v>
       </c>
-      <c r="C3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R3" t="s">
-        <v>114</v>
-      </c>
-      <c r="S3" t="s">
-        <v>114</v>
-      </c>
-      <c r="T3" t="s">
-        <v>114</v>
-      </c>
-      <c r="U3" t="s">
-        <v>114</v>
-      </c>
-      <c r="V3" t="s">
-        <v>114</v>
-      </c>
-      <c r="W3" t="s">
-        <v>114</v>
-      </c>
-      <c r="X3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>115</v>
       </c>
-      <c r="B4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="C4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="D4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="E4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="F4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="G4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="H4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="I4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="J4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="K4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="L4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="M4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="N4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="O4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="P4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="Q4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="R4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="S4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="T4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="U4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="V4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="W4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="X4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="Y4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="Z4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="AA4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="AB4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="AC4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="AD4">
-        <v>1.0129999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>116</v>
       </c>
-      <c r="B5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="C5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="H5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="J5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="K5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="L5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="M5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="N5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="O5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="P5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="Q5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="R5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="S5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="T5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="U5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="V5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="W5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="X5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="Y5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="Z5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AA5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AB5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AC5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AD5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>117</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="C8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="D8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="E8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="F8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="G8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="H8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="I8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="J8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="K8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="L8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="M8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="N8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="O8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="P8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="Q8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="R8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="S8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="T8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="U8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="V8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="W8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="X8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="Y8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="Z8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="AA8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="AB8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="AC8">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="AD8">
-        <v>1.0129999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9">
-        <v>0.113</v>
-      </c>
-      <c r="C9">
-        <v>0.113</v>
-      </c>
-      <c r="D9">
-        <v>0.113</v>
-      </c>
-      <c r="E9">
-        <v>0.113</v>
-      </c>
-      <c r="F9">
-        <v>0.113</v>
-      </c>
-      <c r="G9">
-        <v>0.113</v>
-      </c>
-      <c r="H9">
-        <v>0.113</v>
-      </c>
-      <c r="I9">
-        <v>0.113</v>
-      </c>
-      <c r="J9">
-        <v>0.113</v>
-      </c>
-      <c r="K9">
-        <v>0.113</v>
-      </c>
-      <c r="L9">
-        <v>0.113</v>
-      </c>
-      <c r="M9">
-        <v>0.113</v>
-      </c>
-      <c r="N9">
-        <v>0.113</v>
-      </c>
-      <c r="O9">
-        <v>0.113</v>
-      </c>
-      <c r="P9">
-        <v>0.113</v>
-      </c>
-      <c r="Q9">
-        <v>0.113</v>
-      </c>
-      <c r="R9">
-        <v>0.113</v>
-      </c>
-      <c r="S9">
-        <v>0.113</v>
-      </c>
-      <c r="T9">
-        <v>0.113</v>
-      </c>
-      <c r="U9">
-        <v>0.113</v>
-      </c>
-      <c r="V9">
-        <v>0.113</v>
-      </c>
-      <c r="W9">
-        <v>0.113</v>
-      </c>
-      <c r="X9">
-        <v>0.113</v>
-      </c>
-      <c r="Y9">
-        <v>0.113</v>
-      </c>
-      <c r="Z9">
-        <v>0.113</v>
-      </c>
-      <c r="AA9">
-        <v>0.113</v>
-      </c>
-      <c r="AB9">
-        <v>0.113</v>
-      </c>
-      <c r="AC9">
-        <v>0.113</v>
-      </c>
-      <c r="AD9">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>3</v>
-      </c>
-      <c r="S10">
-        <v>3</v>
-      </c>
-      <c r="T10">
-        <v>3</v>
-      </c>
-      <c r="U10">
-        <v>3</v>
-      </c>
-      <c r="V10">
-        <v>3</v>
-      </c>
-      <c r="W10">
-        <v>3</v>
-      </c>
-      <c r="X10">
-        <v>3</v>
-      </c>
-      <c r="Y10">
-        <v>3</v>
-      </c>
-      <c r="Z10">
-        <v>3</v>
-      </c>
-      <c r="AA10">
-        <v>3</v>
-      </c>
-      <c r="AB10">
-        <v>3</v>
-      </c>
-      <c r="AC10">
-        <v>3</v>
-      </c>
-      <c r="AD10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
-        <v>0.02</v>
-      </c>
-      <c r="C11">
-        <v>0.02</v>
-      </c>
-      <c r="D11">
-        <v>0.02</v>
-      </c>
-      <c r="E11">
-        <v>0.02</v>
-      </c>
-      <c r="F11">
-        <v>0.02</v>
-      </c>
-      <c r="G11">
-        <v>0.02</v>
-      </c>
-      <c r="H11">
-        <v>0.02</v>
-      </c>
-      <c r="I11">
-        <v>0.02</v>
-      </c>
-      <c r="J11">
-        <v>0.02</v>
-      </c>
-      <c r="K11">
-        <v>0.02</v>
-      </c>
-      <c r="L11">
-        <v>0.02</v>
-      </c>
-      <c r="M11">
-        <v>0.02</v>
-      </c>
-      <c r="N11">
-        <v>0.02</v>
-      </c>
-      <c r="O11">
-        <v>0.02</v>
-      </c>
-      <c r="P11">
-        <v>0.02</v>
-      </c>
-      <c r="Q11">
-        <v>0.02</v>
-      </c>
-      <c r="R11">
-        <v>0.02</v>
-      </c>
-      <c r="S11">
-        <v>0.02</v>
-      </c>
-      <c r="T11">
-        <v>0.02</v>
-      </c>
-      <c r="U11">
-        <v>0.02</v>
-      </c>
-      <c r="V11">
-        <v>0.02</v>
-      </c>
-      <c r="W11">
-        <v>0.02</v>
-      </c>
-      <c r="X11">
-        <v>0.02</v>
-      </c>
-      <c r="Y11">
-        <v>0.02</v>
-      </c>
-      <c r="Z11">
-        <v>0.02</v>
-      </c>
-      <c r="AA11">
-        <v>0.02</v>
-      </c>
-      <c r="AB11">
-        <v>0.02</v>
-      </c>
-      <c r="AC11">
-        <v>0.02</v>
-      </c>
-      <c r="AD11">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>121</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>122</v>
       </c>
-      <c r="B14">
-        <v>1.65</v>
-      </c>
-      <c r="C14">
-        <v>1.65</v>
-      </c>
-      <c r="D14">
-        <v>1.65</v>
-      </c>
-      <c r="E14">
-        <v>1.65</v>
-      </c>
-      <c r="F14">
-        <v>1.65</v>
-      </c>
-      <c r="G14">
-        <v>1.65</v>
-      </c>
-      <c r="H14">
-        <v>1.65</v>
-      </c>
-      <c r="I14">
-        <v>1.65</v>
-      </c>
-      <c r="J14">
-        <v>1.65</v>
-      </c>
-      <c r="K14">
-        <v>1.65</v>
-      </c>
-      <c r="L14">
-        <v>1.65</v>
-      </c>
-      <c r="M14">
-        <v>1.65</v>
-      </c>
-      <c r="N14">
-        <v>1.65</v>
-      </c>
-      <c r="O14">
-        <v>1.65</v>
-      </c>
-      <c r="P14">
-        <v>1.65</v>
-      </c>
-      <c r="Q14">
-        <v>1.65</v>
-      </c>
-      <c r="R14">
-        <v>1.65</v>
-      </c>
-      <c r="S14">
-        <v>1.65</v>
-      </c>
-      <c r="T14">
-        <v>1.65</v>
-      </c>
-      <c r="U14">
-        <v>1.65</v>
-      </c>
-      <c r="V14">
-        <v>1.65</v>
-      </c>
-      <c r="W14">
-        <v>1.65</v>
-      </c>
-      <c r="X14">
-        <v>1.65</v>
-      </c>
-      <c r="Y14">
-        <v>1.65</v>
-      </c>
-      <c r="Z14">
-        <v>1.65</v>
-      </c>
-      <c r="AA14">
-        <v>1.65</v>
-      </c>
-      <c r="AB14">
-        <v>1.65</v>
-      </c>
-      <c r="AC14">
-        <v>1.65</v>
-      </c>
-      <c r="AD14">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>123</v>
       </c>
-      <c r="B15">
-        <v>1.65</v>
-      </c>
-      <c r="C15">
-        <v>1.65</v>
-      </c>
-      <c r="D15">
-        <v>1.65</v>
-      </c>
-      <c r="E15">
-        <v>1.65</v>
-      </c>
-      <c r="F15">
-        <v>1.65</v>
-      </c>
-      <c r="G15">
-        <v>1.65</v>
-      </c>
-      <c r="H15">
-        <v>1.65</v>
-      </c>
-      <c r="I15">
-        <v>1.65</v>
-      </c>
-      <c r="J15">
-        <v>1.65</v>
-      </c>
-      <c r="K15">
-        <v>1.65</v>
-      </c>
-      <c r="L15">
-        <v>1.65</v>
-      </c>
-      <c r="M15">
-        <v>1.65</v>
-      </c>
-      <c r="N15">
-        <v>1.65</v>
-      </c>
-      <c r="O15">
-        <v>1.65</v>
-      </c>
-      <c r="P15">
-        <v>1.65</v>
-      </c>
-      <c r="Q15">
-        <v>1.65</v>
-      </c>
-      <c r="R15">
-        <v>1.65</v>
-      </c>
-      <c r="S15">
-        <v>1.65</v>
-      </c>
-      <c r="T15">
-        <v>1.65</v>
-      </c>
-      <c r="U15">
-        <v>1.65</v>
-      </c>
-      <c r="V15">
-        <v>1.65</v>
-      </c>
-      <c r="W15">
-        <v>1.65</v>
-      </c>
-      <c r="X15">
-        <v>1.65</v>
-      </c>
-      <c r="Y15">
-        <v>1.65</v>
-      </c>
-      <c r="Z15">
-        <v>1.65</v>
-      </c>
-      <c r="AA15">
-        <v>1.65</v>
-      </c>
-      <c r="AB15">
-        <v>1.65</v>
-      </c>
-      <c r="AC15">
-        <v>1.65</v>
-      </c>
-      <c r="AD15">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>124</v>
       </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
-      <c r="P16">
-        <v>3</v>
-      </c>
-      <c r="Q16">
-        <v>3</v>
-      </c>
-      <c r="R16">
-        <v>3</v>
-      </c>
-      <c r="S16">
-        <v>3</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>3</v>
-      </c>
-      <c r="V16">
-        <v>3</v>
-      </c>
-      <c r="W16">
-        <v>3</v>
-      </c>
-      <c r="X16">
-        <v>3</v>
-      </c>
-      <c r="Y16">
-        <v>3</v>
-      </c>
-      <c r="Z16">
-        <v>3</v>
-      </c>
-      <c r="AA16">
-        <v>3</v>
-      </c>
-      <c r="AB16">
-        <v>3</v>
-      </c>
-      <c r="AC16">
-        <v>3</v>
-      </c>
-      <c r="AD16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>125</v>
-      </c>
-      <c r="B17">
-        <v>0.1</v>
-      </c>
-      <c r="C17">
-        <v>0.1</v>
-      </c>
-      <c r="D17">
-        <v>0.1</v>
-      </c>
-      <c r="E17">
-        <v>0.1</v>
-      </c>
-      <c r="F17">
-        <v>0.1</v>
-      </c>
-      <c r="G17">
-        <v>0.1</v>
-      </c>
-      <c r="H17">
-        <v>0.1</v>
-      </c>
-      <c r="I17">
-        <v>0.1</v>
-      </c>
-      <c r="J17">
-        <v>0.1</v>
-      </c>
-      <c r="K17">
-        <v>0.1</v>
-      </c>
-      <c r="L17">
-        <v>0.1</v>
-      </c>
-      <c r="M17">
-        <v>0.1</v>
-      </c>
-      <c r="N17">
-        <v>0.1</v>
-      </c>
-      <c r="O17">
-        <v>0.1</v>
-      </c>
-      <c r="P17">
-        <v>0.1</v>
-      </c>
-      <c r="Q17">
-        <v>0.1</v>
-      </c>
-      <c r="R17">
-        <v>0.1</v>
-      </c>
-      <c r="S17">
-        <v>0.1</v>
-      </c>
-      <c r="T17">
-        <v>0.1</v>
-      </c>
-      <c r="U17">
-        <v>0.1</v>
-      </c>
-      <c r="V17">
-        <v>0.1</v>
-      </c>
-      <c r="W17">
-        <v>0.1</v>
-      </c>
-      <c r="X17">
-        <v>0.1</v>
-      </c>
-      <c r="Y17">
-        <v>0.1</v>
-      </c>
-      <c r="Z17">
-        <v>0.1</v>
-      </c>
-      <c r="AA17">
-        <v>0.1</v>
-      </c>
-      <c r="AB17">
-        <v>0.1</v>
-      </c>
-      <c r="AC17">
-        <v>0.1</v>
-      </c>
-      <c r="AD17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18">
-        <v>-0.1</v>
-      </c>
-      <c r="C18">
-        <v>-0.1</v>
-      </c>
-      <c r="D18">
-        <v>-0.1</v>
-      </c>
-      <c r="E18">
-        <v>-0.1</v>
-      </c>
-      <c r="F18">
-        <v>-0.1</v>
-      </c>
-      <c r="G18">
-        <v>-0.1</v>
-      </c>
-      <c r="H18">
-        <v>-0.1</v>
-      </c>
-      <c r="I18">
-        <v>-0.1</v>
-      </c>
-      <c r="J18">
-        <v>-0.1</v>
-      </c>
-      <c r="K18">
-        <v>-0.1</v>
-      </c>
-      <c r="L18">
-        <v>-0.1</v>
-      </c>
-      <c r="M18">
-        <v>-0.1</v>
-      </c>
-      <c r="N18">
-        <v>-0.1</v>
-      </c>
-      <c r="O18">
-        <v>-0.1</v>
-      </c>
-      <c r="P18">
-        <v>-0.1</v>
-      </c>
-      <c r="Q18">
-        <v>-0.1</v>
-      </c>
-      <c r="R18">
-        <v>-0.1</v>
-      </c>
-      <c r="S18">
-        <v>-0.1</v>
-      </c>
-      <c r="T18">
-        <v>-0.1</v>
-      </c>
-      <c r="U18">
-        <v>-0.1</v>
-      </c>
-      <c r="V18">
-        <v>-0.1</v>
-      </c>
-      <c r="W18">
-        <v>-0.1</v>
-      </c>
-      <c r="X18">
-        <v>-0.1</v>
-      </c>
-      <c r="Y18">
-        <v>-0.1</v>
-      </c>
-      <c r="Z18">
-        <v>-0.1</v>
-      </c>
-      <c r="AA18">
-        <v>-0.1</v>
-      </c>
-      <c r="AB18">
-        <v>-0.1</v>
-      </c>
-      <c r="AC18">
-        <v>-0.1</v>
-      </c>
-      <c r="AD18">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6255,7 +5595,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6267,152 +5607,96 @@
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="B1">
-        <v>39</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8">
-        <v>1.22</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9">
-        <v>1.2</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B10">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B11">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B12">
-        <v>-1.3</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B13">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B16">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B17">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -6425,7 +5709,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6437,248 +5721,156 @@
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="B1">
-        <v>39</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="B7">
-        <v>-99</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="B8">
-        <v>99</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
-      <c r="B9">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B13">
-        <v>1.1000000000000001</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B14">
-        <v>-1.1000000000000001</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
-      <c r="B16">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B17">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B18">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
-      <c r="B20">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
-      <c r="B22">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
-      <c r="B24">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
-      <c r="B25">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
-      <c r="B26">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>68</v>
       </c>
-      <c r="B27">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
-      <c r="B30">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>72</v>
-      </c>
-      <c r="B31">
-        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -6691,7 +5883,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6703,288 +5895,181 @@
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="B1">
-        <v>39</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>79</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10">
-        <v>0.02</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14">
-        <v>0.05</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>87</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>88</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>89</v>
       </c>
-      <c r="B18">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>90</v>
       </c>
-      <c r="B19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>91</v>
       </c>
-      <c r="B20">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>92</v>
       </c>
-      <c r="B21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>93</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>94</v>
       </c>
-      <c r="B23">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>95</v>
       </c>
-      <c r="B24">
-        <v>-0.43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>96</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>97</v>
       </c>
-      <c r="B26">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>98</v>
       </c>
-      <c r="B27">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>99</v>
       </c>
-      <c r="B28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>100</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>101</v>
       </c>
-      <c r="B30">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>102</v>
       </c>
-      <c r="B31">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>103</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>104</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>105</v>
       </c>
-      <c r="B34">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>106</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6994,44 +6079,2737 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D1A3C7-0D73-4B20-8235-E82B4092EEC3}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:FX3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:180" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+      <c r="CC1">
+        <v>80</v>
+      </c>
+      <c r="CD1">
+        <v>81</v>
+      </c>
+      <c r="CE1">
+        <v>82</v>
+      </c>
+      <c r="CF1">
+        <v>83</v>
+      </c>
+      <c r="CG1">
+        <v>84</v>
+      </c>
+      <c r="CH1">
+        <v>85</v>
+      </c>
+      <c r="CI1">
+        <v>86</v>
+      </c>
+      <c r="CJ1">
+        <v>87</v>
+      </c>
+      <c r="CK1">
+        <v>88</v>
+      </c>
+      <c r="CL1">
+        <v>89</v>
+      </c>
+      <c r="CM1">
+        <v>90</v>
+      </c>
+      <c r="CN1">
+        <v>91</v>
+      </c>
+      <c r="CO1">
+        <v>92</v>
+      </c>
+      <c r="CP1">
+        <v>93</v>
+      </c>
+      <c r="CQ1">
+        <v>94</v>
+      </c>
+      <c r="CR1">
+        <v>95</v>
+      </c>
+      <c r="CS1">
+        <v>96</v>
+      </c>
+      <c r="CT1">
+        <v>97</v>
+      </c>
+      <c r="CU1">
+        <v>98</v>
+      </c>
+      <c r="CV1">
+        <v>99</v>
+      </c>
+      <c r="CW1">
+        <v>100</v>
+      </c>
+      <c r="CX1">
+        <v>101</v>
+      </c>
+      <c r="CY1">
+        <v>102</v>
+      </c>
+      <c r="CZ1">
+        <v>103</v>
+      </c>
+      <c r="DA1">
+        <v>104</v>
+      </c>
+      <c r="DB1">
+        <v>105</v>
+      </c>
+      <c r="DC1">
+        <v>106</v>
+      </c>
+      <c r="DD1">
+        <v>107</v>
+      </c>
+      <c r="DE1">
+        <v>108</v>
+      </c>
+      <c r="DF1">
+        <v>109</v>
+      </c>
+      <c r="DG1">
+        <v>110</v>
+      </c>
+      <c r="DH1">
+        <v>111</v>
+      </c>
+      <c r="DI1">
+        <v>112</v>
+      </c>
+      <c r="DJ1">
+        <v>113</v>
+      </c>
+      <c r="DK1">
+        <v>114</v>
+      </c>
+      <c r="DL1">
+        <v>115</v>
+      </c>
+      <c r="DM1">
+        <v>116</v>
+      </c>
+      <c r="DN1">
+        <v>117</v>
+      </c>
+      <c r="DO1">
+        <v>118</v>
+      </c>
+      <c r="DP1">
+        <v>119</v>
+      </c>
+      <c r="DQ1">
+        <v>120</v>
+      </c>
+      <c r="DR1">
+        <v>121</v>
+      </c>
+      <c r="DS1">
+        <v>122</v>
+      </c>
+      <c r="DT1">
+        <v>123</v>
+      </c>
+      <c r="DU1">
+        <v>124</v>
+      </c>
+      <c r="DV1">
+        <v>125</v>
+      </c>
+      <c r="DW1">
+        <v>126</v>
+      </c>
+      <c r="DX1">
+        <v>127</v>
+      </c>
+      <c r="DY1">
+        <v>128</v>
+      </c>
+      <c r="DZ1">
+        <v>129</v>
+      </c>
+      <c r="EA1">
+        <v>130</v>
+      </c>
+      <c r="EB1">
+        <v>131</v>
+      </c>
+      <c r="EC1">
+        <v>132</v>
+      </c>
+      <c r="ED1">
+        <v>133</v>
+      </c>
+      <c r="EE1">
+        <v>134</v>
+      </c>
+      <c r="EF1">
+        <v>135</v>
+      </c>
+      <c r="EG1">
+        <v>136</v>
+      </c>
+      <c r="EH1">
+        <v>137</v>
+      </c>
+      <c r="EI1">
+        <v>138</v>
+      </c>
+      <c r="EJ1">
+        <v>139</v>
+      </c>
+      <c r="EK1">
+        <v>140</v>
+      </c>
+      <c r="EL1">
+        <v>141</v>
+      </c>
+      <c r="EM1">
+        <v>142</v>
+      </c>
+      <c r="EN1">
+        <v>143</v>
+      </c>
+      <c r="EO1">
+        <v>144</v>
+      </c>
+      <c r="EP1">
+        <v>145</v>
+      </c>
+      <c r="EQ1">
+        <v>146</v>
+      </c>
+      <c r="ER1">
+        <v>147</v>
+      </c>
+      <c r="ES1">
+        <v>148</v>
+      </c>
+      <c r="ET1">
+        <v>149</v>
+      </c>
+      <c r="EU1">
+        <v>150</v>
+      </c>
+      <c r="EV1">
+        <v>151</v>
+      </c>
+      <c r="EW1">
+        <v>152</v>
+      </c>
+      <c r="EX1">
+        <v>153</v>
+      </c>
+      <c r="EY1">
+        <v>154</v>
+      </c>
+      <c r="EZ1">
+        <v>155</v>
+      </c>
+      <c r="FA1">
+        <v>156</v>
+      </c>
+      <c r="FB1">
+        <v>157</v>
+      </c>
+      <c r="FC1">
+        <v>158</v>
+      </c>
+      <c r="FD1">
+        <v>159</v>
+      </c>
+      <c r="FE1">
+        <v>160</v>
+      </c>
+      <c r="FF1">
+        <v>161</v>
+      </c>
+      <c r="FG1">
+        <v>162</v>
+      </c>
+      <c r="FH1">
+        <v>163</v>
+      </c>
+      <c r="FI1">
+        <v>164</v>
+      </c>
+      <c r="FJ1">
+        <v>165</v>
+      </c>
+      <c r="FK1">
+        <v>166</v>
+      </c>
+      <c r="FL1">
+        <v>167</v>
+      </c>
+      <c r="FM1">
+        <v>168</v>
+      </c>
+      <c r="FN1">
+        <v>169</v>
+      </c>
+      <c r="FO1">
+        <v>170</v>
+      </c>
+      <c r="FP1">
+        <v>171</v>
+      </c>
+      <c r="FQ1">
+        <v>172</v>
+      </c>
+      <c r="FR1">
+        <v>173</v>
+      </c>
+      <c r="FS1">
+        <v>174</v>
+      </c>
+      <c r="FT1">
+        <v>175</v>
+      </c>
+      <c r="FU1">
+        <v>176</v>
+      </c>
+      <c r="FV1">
+        <v>177</v>
+      </c>
+      <c r="FW1">
+        <v>178</v>
+      </c>
+      <c r="FX1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:180" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+      <c r="I2">
+        <v>0.1</v>
+      </c>
+      <c r="J2">
+        <v>0.1</v>
+      </c>
+      <c r="K2">
+        <v>0.1</v>
+      </c>
+      <c r="L2">
+        <v>0.1</v>
+      </c>
+      <c r="M2">
+        <v>0.1</v>
+      </c>
+      <c r="N2">
+        <v>0.1</v>
+      </c>
+      <c r="O2">
+        <v>0.1</v>
+      </c>
+      <c r="P2">
+        <v>0.1</v>
+      </c>
+      <c r="Q2">
+        <v>0.1</v>
+      </c>
+      <c r="R2">
+        <v>0.1</v>
+      </c>
+      <c r="S2">
+        <v>0.1</v>
+      </c>
+      <c r="T2">
+        <v>0.1</v>
+      </c>
+      <c r="U2">
+        <v>0.1</v>
+      </c>
+      <c r="V2">
+        <v>0.1</v>
+      </c>
+      <c r="W2">
+        <v>0.1</v>
+      </c>
+      <c r="X2">
+        <v>0.1</v>
+      </c>
+      <c r="Y2">
+        <v>0.1</v>
+      </c>
+      <c r="Z2">
+        <v>0.1</v>
+      </c>
+      <c r="AA2">
+        <v>0.1</v>
+      </c>
+      <c r="AB2">
+        <v>0.1</v>
+      </c>
+      <c r="AC2">
+        <v>0.1</v>
+      </c>
+      <c r="AD2">
+        <v>0.1</v>
+      </c>
+      <c r="AE2">
+        <v>0.1</v>
+      </c>
+      <c r="AF2">
+        <v>0.1</v>
+      </c>
+      <c r="AG2">
+        <v>0.1</v>
+      </c>
+      <c r="AH2">
+        <v>0.1</v>
+      </c>
+      <c r="AI2">
+        <v>0.1</v>
+      </c>
+      <c r="AJ2">
+        <v>0.1</v>
+      </c>
+      <c r="AK2">
+        <v>0.1</v>
+      </c>
+      <c r="AL2">
+        <v>0.1</v>
+      </c>
+      <c r="AM2">
+        <v>0.1</v>
+      </c>
+      <c r="AN2">
+        <v>0.1</v>
+      </c>
+      <c r="AO2">
+        <v>0.1</v>
+      </c>
+      <c r="AP2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ2">
+        <v>0.1</v>
+      </c>
+      <c r="AR2">
+        <v>0.1</v>
+      </c>
+      <c r="AS2">
+        <v>0.1</v>
+      </c>
+      <c r="AT2">
+        <v>0.1</v>
+      </c>
+      <c r="AU2">
+        <v>0.1</v>
+      </c>
+      <c r="AV2">
+        <v>0.1</v>
+      </c>
+      <c r="AW2">
+        <v>0.1</v>
+      </c>
+      <c r="AX2">
+        <v>0.1</v>
+      </c>
+      <c r="AY2">
+        <v>0.1</v>
+      </c>
+      <c r="AZ2">
+        <v>0.1</v>
+      </c>
+      <c r="BA2">
+        <v>0.1</v>
+      </c>
+      <c r="BB2">
+        <v>0.1</v>
+      </c>
+      <c r="BC2">
+        <v>0.1</v>
+      </c>
+      <c r="BD2">
+        <v>0.1</v>
+      </c>
+      <c r="BE2">
+        <v>0.1</v>
+      </c>
+      <c r="BF2">
+        <v>0.1</v>
+      </c>
+      <c r="BG2">
+        <v>0.1</v>
+      </c>
+      <c r="BH2">
+        <v>0.1</v>
+      </c>
+      <c r="BI2">
+        <v>0.1</v>
+      </c>
+      <c r="BJ2">
+        <v>0.1</v>
+      </c>
+      <c r="BK2">
+        <v>0.1</v>
+      </c>
+      <c r="BL2">
+        <v>0.1</v>
+      </c>
+      <c r="BM2">
+        <v>0.1</v>
+      </c>
+      <c r="BN2">
+        <v>0.1</v>
+      </c>
+      <c r="BO2">
+        <v>0.1</v>
+      </c>
+      <c r="BP2">
+        <v>0.1</v>
+      </c>
+      <c r="BQ2">
+        <v>0.1</v>
+      </c>
+      <c r="BR2">
+        <v>0.1</v>
+      </c>
+      <c r="BS2">
+        <v>0.1</v>
+      </c>
+      <c r="BT2">
+        <v>0.1</v>
+      </c>
+      <c r="BU2">
+        <v>0.1</v>
+      </c>
+      <c r="BV2">
+        <v>0.1</v>
+      </c>
+      <c r="BW2">
+        <v>0.1</v>
+      </c>
+      <c r="BX2">
+        <v>0.1</v>
+      </c>
+      <c r="BY2">
+        <v>0.1</v>
+      </c>
+      <c r="BZ2">
+        <v>0.1</v>
+      </c>
+      <c r="CA2">
+        <v>0.1</v>
+      </c>
+      <c r="CB2">
+        <v>0.1</v>
+      </c>
+      <c r="CC2">
+        <v>0.1</v>
+      </c>
+      <c r="CD2">
+        <v>0.1</v>
+      </c>
+      <c r="CE2">
+        <v>0.1</v>
+      </c>
+      <c r="CF2">
+        <v>0.1</v>
+      </c>
+      <c r="CG2">
+        <v>0.1</v>
+      </c>
+      <c r="CH2">
+        <v>0.1</v>
+      </c>
+      <c r="CI2">
+        <v>0.1</v>
+      </c>
+      <c r="CJ2">
+        <v>0.1</v>
+      </c>
+      <c r="CK2">
+        <v>0.1</v>
+      </c>
+      <c r="CL2">
+        <v>0.1</v>
+      </c>
+      <c r="CM2">
+        <v>0.1</v>
+      </c>
+      <c r="CN2">
+        <v>0.1</v>
+      </c>
+      <c r="CO2">
+        <v>0.1</v>
+      </c>
+      <c r="CP2">
+        <v>0.1</v>
+      </c>
+      <c r="CQ2">
+        <v>0.1</v>
+      </c>
+      <c r="CR2">
+        <v>0.1</v>
+      </c>
+      <c r="CS2">
+        <v>0.1</v>
+      </c>
+      <c r="CT2">
+        <v>0.1</v>
+      </c>
+      <c r="CU2">
+        <v>0.1</v>
+      </c>
+      <c r="CV2">
+        <v>0.1</v>
+      </c>
+      <c r="CW2">
+        <v>0.1</v>
+      </c>
+      <c r="CX2">
+        <v>0.1</v>
+      </c>
+      <c r="CY2">
+        <v>0.1</v>
+      </c>
+      <c r="CZ2">
+        <v>0.1</v>
+      </c>
+      <c r="DA2">
+        <v>0.1</v>
+      </c>
+      <c r="DB2">
+        <v>0.1</v>
+      </c>
+      <c r="DC2">
+        <v>0.1</v>
+      </c>
+      <c r="DD2">
+        <v>0.1</v>
+      </c>
+      <c r="DE2">
+        <v>0.1</v>
+      </c>
+      <c r="DF2">
+        <v>0.1</v>
+      </c>
+      <c r="DG2">
+        <v>0.1</v>
+      </c>
+      <c r="DH2">
+        <v>0.1</v>
+      </c>
+      <c r="DI2">
+        <v>0.1</v>
+      </c>
+      <c r="DJ2">
+        <v>0.1</v>
+      </c>
+      <c r="DK2">
+        <v>0.1</v>
+      </c>
+      <c r="DL2">
+        <v>0.1</v>
+      </c>
+      <c r="DM2">
+        <v>0.1</v>
+      </c>
+      <c r="DN2">
+        <v>0.1</v>
+      </c>
+      <c r="DO2">
+        <v>0.1</v>
+      </c>
+      <c r="DP2">
+        <v>0.1</v>
+      </c>
+      <c r="DQ2">
+        <v>0.1</v>
+      </c>
+      <c r="DR2">
+        <v>0.1</v>
+      </c>
+      <c r="DS2">
+        <v>0.1</v>
+      </c>
+      <c r="DT2">
+        <v>0.1</v>
+      </c>
+      <c r="DU2">
+        <v>0.1</v>
+      </c>
+      <c r="DV2">
+        <v>0.1</v>
+      </c>
+      <c r="DW2">
+        <v>0.1</v>
+      </c>
+      <c r="DX2">
+        <v>0.1</v>
+      </c>
+      <c r="DY2">
+        <v>0.1</v>
+      </c>
+      <c r="DZ2">
+        <v>0.1</v>
+      </c>
+      <c r="EA2">
+        <v>0.1</v>
+      </c>
+      <c r="EB2">
+        <v>0.1</v>
+      </c>
+      <c r="EC2">
+        <v>0.1</v>
+      </c>
+      <c r="ED2">
+        <v>0.1</v>
+      </c>
+      <c r="EE2">
+        <v>0.1</v>
+      </c>
+      <c r="EF2">
+        <v>0.1</v>
+      </c>
+      <c r="EG2">
+        <v>0.1</v>
+      </c>
+      <c r="EH2">
+        <v>0.1</v>
+      </c>
+      <c r="EI2">
+        <v>0.1</v>
+      </c>
+      <c r="EJ2">
+        <v>0.1</v>
+      </c>
+      <c r="EK2">
+        <v>0.1</v>
+      </c>
+      <c r="EL2">
+        <v>0.1</v>
+      </c>
+      <c r="EM2">
+        <v>0.1</v>
+      </c>
+      <c r="EN2">
+        <v>0.1</v>
+      </c>
+      <c r="EO2">
+        <v>0.1</v>
+      </c>
+      <c r="EP2">
+        <v>0.1</v>
+      </c>
+      <c r="EQ2">
+        <v>0.1</v>
+      </c>
+      <c r="ER2">
+        <v>0.1</v>
+      </c>
+      <c r="ES2">
+        <v>0.1</v>
+      </c>
+      <c r="ET2">
+        <v>0.1</v>
+      </c>
+      <c r="EU2">
+        <v>0.1</v>
+      </c>
+      <c r="EV2">
+        <v>0.1</v>
+      </c>
+      <c r="EW2">
+        <v>0.1</v>
+      </c>
+      <c r="EX2">
+        <v>0.1</v>
+      </c>
+      <c r="EY2">
+        <v>0.1</v>
+      </c>
+      <c r="EZ2">
+        <v>0.1</v>
+      </c>
+      <c r="FA2">
+        <v>0.1</v>
+      </c>
+      <c r="FB2">
+        <v>0.1</v>
+      </c>
+      <c r="FC2">
+        <v>0.1</v>
+      </c>
+      <c r="FD2">
+        <v>0.1</v>
+      </c>
+      <c r="FE2">
+        <v>0.1</v>
+      </c>
+      <c r="FF2">
+        <v>0.1</v>
+      </c>
+      <c r="FG2">
+        <v>0.1</v>
+      </c>
+      <c r="FH2">
+        <v>0.1</v>
+      </c>
+      <c r="FI2">
+        <v>0.1</v>
+      </c>
+      <c r="FJ2">
+        <v>0.1</v>
+      </c>
+      <c r="FK2">
+        <v>0.1</v>
+      </c>
+      <c r="FL2">
+        <v>0.1</v>
+      </c>
+      <c r="FM2">
+        <v>0.1</v>
+      </c>
+      <c r="FN2">
+        <v>0.1</v>
+      </c>
+      <c r="FO2">
+        <v>0.1</v>
+      </c>
+      <c r="FP2">
+        <v>0.1</v>
+      </c>
+      <c r="FQ2">
+        <v>0.1</v>
+      </c>
+      <c r="FR2">
+        <v>0.1</v>
+      </c>
+      <c r="FS2">
+        <v>0.1</v>
+      </c>
+      <c r="FT2">
+        <v>0.1</v>
+      </c>
+      <c r="FU2">
+        <v>0.1</v>
+      </c>
+      <c r="FV2">
+        <v>0.1</v>
+      </c>
+      <c r="FW2">
+        <v>0.1</v>
+      </c>
+      <c r="FX2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:180" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3">
+        <v>0.05</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <v>0.05</v>
+      </c>
+      <c r="F3">
+        <v>0.05</v>
+      </c>
+      <c r="G3">
+        <v>0.05</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+      <c r="I3">
+        <v>0.05</v>
+      </c>
+      <c r="J3">
+        <v>0.05</v>
+      </c>
+      <c r="K3">
+        <v>0.05</v>
+      </c>
+      <c r="L3">
+        <v>0.05</v>
+      </c>
+      <c r="M3">
+        <v>0.05</v>
+      </c>
+      <c r="N3">
+        <v>0.05</v>
+      </c>
+      <c r="O3">
+        <v>0.05</v>
+      </c>
+      <c r="P3">
+        <v>0.05</v>
+      </c>
+      <c r="Q3">
+        <v>0.05</v>
+      </c>
+      <c r="R3">
+        <v>0.05</v>
+      </c>
+      <c r="S3">
+        <v>0.05</v>
+      </c>
+      <c r="T3">
+        <v>0.05</v>
+      </c>
+      <c r="U3">
+        <v>0.05</v>
+      </c>
+      <c r="V3">
+        <v>0.05</v>
+      </c>
+      <c r="W3">
+        <v>0.05</v>
+      </c>
+      <c r="X3">
+        <v>0.05</v>
+      </c>
+      <c r="Y3">
+        <v>0.05</v>
+      </c>
+      <c r="Z3">
+        <v>0.05</v>
+      </c>
+      <c r="AA3">
+        <v>0.05</v>
+      </c>
+      <c r="AB3">
+        <v>0.05</v>
+      </c>
+      <c r="AC3">
+        <v>0.05</v>
+      </c>
+      <c r="AD3">
+        <v>0.05</v>
+      </c>
+      <c r="AE3">
+        <v>0.05</v>
+      </c>
+      <c r="AF3">
+        <v>0.05</v>
+      </c>
+      <c r="AG3">
+        <v>0.05</v>
+      </c>
+      <c r="AH3">
+        <v>0.05</v>
+      </c>
+      <c r="AI3">
+        <v>0.05</v>
+      </c>
+      <c r="AJ3">
+        <v>0.05</v>
+      </c>
+      <c r="AK3">
+        <v>0.05</v>
+      </c>
+      <c r="AL3">
+        <v>0.05</v>
+      </c>
+      <c r="AM3">
+        <v>0.05</v>
+      </c>
+      <c r="AN3">
+        <v>0.05</v>
+      </c>
+      <c r="AO3">
+        <v>0.05</v>
+      </c>
+      <c r="AP3">
+        <v>0.05</v>
+      </c>
+      <c r="AQ3">
+        <v>0.05</v>
+      </c>
+      <c r="AR3">
+        <v>0.05</v>
+      </c>
+      <c r="AS3">
+        <v>0.05</v>
+      </c>
+      <c r="AT3">
+        <v>0.05</v>
+      </c>
+      <c r="AU3">
+        <v>0.05</v>
+      </c>
+      <c r="AV3">
+        <v>0.05</v>
+      </c>
+      <c r="AW3">
+        <v>0.05</v>
+      </c>
+      <c r="AX3">
+        <v>0.05</v>
+      </c>
+      <c r="AY3">
+        <v>0.05</v>
+      </c>
+      <c r="AZ3">
+        <v>0.05</v>
+      </c>
+      <c r="BA3">
+        <v>0.05</v>
+      </c>
+      <c r="BB3">
+        <v>0.05</v>
+      </c>
+      <c r="BC3">
+        <v>0.05</v>
+      </c>
+      <c r="BD3">
+        <v>0.05</v>
+      </c>
+      <c r="BE3">
+        <v>0.05</v>
+      </c>
+      <c r="BF3">
+        <v>0.05</v>
+      </c>
+      <c r="BG3">
+        <v>0.05</v>
+      </c>
+      <c r="BH3">
+        <v>0.05</v>
+      </c>
+      <c r="BI3">
+        <v>0.05</v>
+      </c>
+      <c r="BJ3">
+        <v>0.05</v>
+      </c>
+      <c r="BK3">
+        <v>0.05</v>
+      </c>
+      <c r="BL3">
+        <v>0.05</v>
+      </c>
+      <c r="BM3">
+        <v>0.05</v>
+      </c>
+      <c r="BN3">
+        <v>0.05</v>
+      </c>
+      <c r="BO3">
+        <v>0.05</v>
+      </c>
+      <c r="BP3">
+        <v>0.05</v>
+      </c>
+      <c r="BQ3">
+        <v>0.05</v>
+      </c>
+      <c r="BR3">
+        <v>0.05</v>
+      </c>
+      <c r="BS3">
+        <v>0.05</v>
+      </c>
+      <c r="BT3">
+        <v>0.05</v>
+      </c>
+      <c r="BU3">
+        <v>0.05</v>
+      </c>
+      <c r="BV3">
+        <v>0.05</v>
+      </c>
+      <c r="BW3">
+        <v>0.05</v>
+      </c>
+      <c r="BX3">
+        <v>0.05</v>
+      </c>
+      <c r="BY3">
+        <v>0.05</v>
+      </c>
+      <c r="BZ3">
+        <v>0.05</v>
+      </c>
+      <c r="CA3">
+        <v>0.05</v>
+      </c>
+      <c r="CB3">
+        <v>0.05</v>
+      </c>
+      <c r="CC3">
+        <v>0.05</v>
+      </c>
+      <c r="CD3">
+        <v>0.05</v>
+      </c>
+      <c r="CE3">
+        <v>0.05</v>
+      </c>
+      <c r="CF3">
+        <v>0.05</v>
+      </c>
+      <c r="CG3">
+        <v>0.05</v>
+      </c>
+      <c r="CH3">
+        <v>0.05</v>
+      </c>
+      <c r="CI3">
+        <v>0.05</v>
+      </c>
+      <c r="CJ3">
+        <v>0.05</v>
+      </c>
+      <c r="CK3">
+        <v>0.05</v>
+      </c>
+      <c r="CL3">
+        <v>0.05</v>
+      </c>
+      <c r="CM3">
+        <v>0.05</v>
+      </c>
+      <c r="CN3">
+        <v>0.05</v>
+      </c>
+      <c r="CO3">
+        <v>0.05</v>
+      </c>
+      <c r="CP3">
+        <v>0.05</v>
+      </c>
+      <c r="CQ3">
+        <v>0.05</v>
+      </c>
+      <c r="CR3">
+        <v>0.05</v>
+      </c>
+      <c r="CS3">
+        <v>0.05</v>
+      </c>
+      <c r="CT3">
+        <v>0.05</v>
+      </c>
+      <c r="CU3">
+        <v>0.05</v>
+      </c>
+      <c r="CV3">
+        <v>0.05</v>
+      </c>
+      <c r="CW3">
+        <v>0.05</v>
+      </c>
+      <c r="CX3">
+        <v>0.05</v>
+      </c>
+      <c r="CY3">
+        <v>0.05</v>
+      </c>
+      <c r="CZ3">
+        <v>0.05</v>
+      </c>
+      <c r="DA3">
+        <v>0.05</v>
+      </c>
+      <c r="DB3">
+        <v>0.05</v>
+      </c>
+      <c r="DC3">
+        <v>0.05</v>
+      </c>
+      <c r="DD3">
+        <v>0.05</v>
+      </c>
+      <c r="DE3">
+        <v>0.05</v>
+      </c>
+      <c r="DF3">
+        <v>0.05</v>
+      </c>
+      <c r="DG3">
+        <v>0.05</v>
+      </c>
+      <c r="DH3">
+        <v>0.05</v>
+      </c>
+      <c r="DI3">
+        <v>0.05</v>
+      </c>
+      <c r="DJ3">
+        <v>0.05</v>
+      </c>
+      <c r="DK3">
+        <v>0.05</v>
+      </c>
+      <c r="DL3">
+        <v>0.05</v>
+      </c>
+      <c r="DM3">
+        <v>0.05</v>
+      </c>
+      <c r="DN3">
+        <v>0.05</v>
+      </c>
+      <c r="DO3">
+        <v>0.05</v>
+      </c>
+      <c r="DP3">
+        <v>0.05</v>
+      </c>
+      <c r="DQ3">
+        <v>0.05</v>
+      </c>
+      <c r="DR3">
+        <v>0.05</v>
+      </c>
+      <c r="DS3">
+        <v>0.05</v>
+      </c>
+      <c r="DT3">
+        <v>0.05</v>
+      </c>
+      <c r="DU3">
+        <v>0.05</v>
+      </c>
+      <c r="DV3">
+        <v>0.05</v>
+      </c>
+      <c r="DW3">
+        <v>0.05</v>
+      </c>
+      <c r="DX3">
+        <v>0.05</v>
+      </c>
+      <c r="DY3">
+        <v>0.05</v>
+      </c>
+      <c r="DZ3">
+        <v>0.05</v>
+      </c>
+      <c r="EA3">
+        <v>0.05</v>
+      </c>
+      <c r="EB3">
+        <v>0.05</v>
+      </c>
+      <c r="EC3">
+        <v>0.05</v>
+      </c>
+      <c r="ED3">
+        <v>0.05</v>
+      </c>
+      <c r="EE3">
+        <v>0.05</v>
+      </c>
+      <c r="EF3">
+        <v>0.05</v>
+      </c>
+      <c r="EG3">
+        <v>0.05</v>
+      </c>
+      <c r="EH3">
+        <v>0.05</v>
+      </c>
+      <c r="EI3">
+        <v>0.05</v>
+      </c>
+      <c r="EJ3">
+        <v>0.05</v>
+      </c>
+      <c r="EK3">
+        <v>0.05</v>
+      </c>
+      <c r="EL3">
+        <v>0.05</v>
+      </c>
+      <c r="EM3">
+        <v>0.05</v>
+      </c>
+      <c r="EN3">
+        <v>0.05</v>
+      </c>
+      <c r="EO3">
+        <v>0.05</v>
+      </c>
+      <c r="EP3">
+        <v>0.05</v>
+      </c>
+      <c r="EQ3">
+        <v>0.05</v>
+      </c>
+      <c r="ER3">
+        <v>0.05</v>
+      </c>
+      <c r="ES3">
+        <v>0.05</v>
+      </c>
+      <c r="ET3">
+        <v>0.05</v>
+      </c>
+      <c r="EU3">
+        <v>0.05</v>
+      </c>
+      <c r="EV3">
+        <v>0.05</v>
+      </c>
+      <c r="EW3">
+        <v>0.05</v>
+      </c>
+      <c r="EX3">
+        <v>0.05</v>
+      </c>
+      <c r="EY3">
+        <v>0.05</v>
+      </c>
+      <c r="EZ3">
+        <v>0.05</v>
+      </c>
+      <c r="FA3">
+        <v>0.05</v>
+      </c>
+      <c r="FB3">
+        <v>0.05</v>
+      </c>
+      <c r="FC3">
+        <v>0.05</v>
+      </c>
+      <c r="FD3">
+        <v>0.05</v>
+      </c>
+      <c r="FE3">
+        <v>0.05</v>
+      </c>
+      <c r="FF3">
+        <v>0.05</v>
+      </c>
+      <c r="FG3">
+        <v>0.05</v>
+      </c>
+      <c r="FH3">
+        <v>0.05</v>
+      </c>
+      <c r="FI3">
+        <v>0.05</v>
+      </c>
+      <c r="FJ3">
+        <v>0.05</v>
+      </c>
+      <c r="FK3">
+        <v>0.05</v>
+      </c>
+      <c r="FL3">
+        <v>0.05</v>
+      </c>
+      <c r="FM3">
+        <v>0.05</v>
+      </c>
+      <c r="FN3">
+        <v>0.05</v>
+      </c>
+      <c r="FO3">
+        <v>0.05</v>
+      </c>
+      <c r="FP3">
+        <v>0.05</v>
+      </c>
+      <c r="FQ3">
+        <v>0.05</v>
+      </c>
+      <c r="FR3">
+        <v>0.05</v>
+      </c>
+      <c r="FS3">
+        <v>0.05</v>
+      </c>
+      <c r="FT3">
+        <v>0.05</v>
+      </c>
+      <c r="FU3">
+        <v>0.05</v>
+      </c>
+      <c r="FV3">
+        <v>0.05</v>
+      </c>
+      <c r="FW3">
+        <v>0.05</v>
+      </c>
+      <c r="FX3">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C9E72B-97CD-4703-9E17-3820AE4EDCAE}">
+  <dimension ref="A1:FX2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:180" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+      <c r="CC1">
+        <v>80</v>
+      </c>
+      <c r="CD1">
+        <v>81</v>
+      </c>
+      <c r="CE1">
+        <v>82</v>
+      </c>
+      <c r="CF1">
+        <v>83</v>
+      </c>
+      <c r="CG1">
+        <v>84</v>
+      </c>
+      <c r="CH1">
+        <v>85</v>
+      </c>
+      <c r="CI1">
+        <v>86</v>
+      </c>
+      <c r="CJ1">
+        <v>87</v>
+      </c>
+      <c r="CK1">
+        <v>88</v>
+      </c>
+      <c r="CL1">
+        <v>89</v>
+      </c>
+      <c r="CM1">
+        <v>90</v>
+      </c>
+      <c r="CN1">
+        <v>91</v>
+      </c>
+      <c r="CO1">
+        <v>92</v>
+      </c>
+      <c r="CP1">
+        <v>93</v>
+      </c>
+      <c r="CQ1">
+        <v>94</v>
+      </c>
+      <c r="CR1">
+        <v>95</v>
+      </c>
+      <c r="CS1">
+        <v>96</v>
+      </c>
+      <c r="CT1">
+        <v>97</v>
+      </c>
+      <c r="CU1">
+        <v>98</v>
+      </c>
+      <c r="CV1">
+        <v>99</v>
+      </c>
+      <c r="CW1">
+        <v>100</v>
+      </c>
+      <c r="CX1">
+        <v>101</v>
+      </c>
+      <c r="CY1">
+        <v>102</v>
+      </c>
+      <c r="CZ1">
+        <v>103</v>
+      </c>
+      <c r="DA1">
+        <v>104</v>
+      </c>
+      <c r="DB1">
+        <v>105</v>
+      </c>
+      <c r="DC1">
+        <v>106</v>
+      </c>
+      <c r="DD1">
+        <v>107</v>
+      </c>
+      <c r="DE1">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="DF1">
+        <v>109</v>
+      </c>
+      <c r="DG1">
+        <v>110</v>
+      </c>
+      <c r="DH1">
+        <v>111</v>
+      </c>
+      <c r="DI1">
+        <v>112</v>
+      </c>
+      <c r="DJ1">
+        <v>113</v>
+      </c>
+      <c r="DK1">
+        <v>114</v>
+      </c>
+      <c r="DL1">
+        <v>115</v>
+      </c>
+      <c r="DM1">
+        <v>116</v>
+      </c>
+      <c r="DN1">
+        <v>117</v>
+      </c>
+      <c r="DO1">
+        <v>118</v>
+      </c>
+      <c r="DP1">
+        <v>119</v>
+      </c>
+      <c r="DQ1">
+        <v>120</v>
+      </c>
+      <c r="DR1">
+        <v>121</v>
+      </c>
+      <c r="DS1">
+        <v>122</v>
+      </c>
+      <c r="DT1">
+        <v>123</v>
+      </c>
+      <c r="DU1">
+        <v>124</v>
+      </c>
+      <c r="DV1">
+        <v>125</v>
+      </c>
+      <c r="DW1">
+        <v>126</v>
+      </c>
+      <c r="DX1">
+        <v>127</v>
+      </c>
+      <c r="DY1">
+        <v>128</v>
+      </c>
+      <c r="DZ1">
+        <v>129</v>
+      </c>
+      <c r="EA1">
+        <v>130</v>
+      </c>
+      <c r="EB1">
+        <v>131</v>
+      </c>
+      <c r="EC1">
+        <v>132</v>
+      </c>
+      <c r="ED1">
+        <v>133</v>
+      </c>
+      <c r="EE1">
+        <v>134</v>
+      </c>
+      <c r="EF1">
         <v>135</v>
       </c>
-      <c r="B3">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="EG1">
         <v>136</v>
       </c>
-      <c r="B4">
-        <v>0.125</v>
+      <c r="EH1">
+        <v>137</v>
+      </c>
+      <c r="EI1">
+        <v>138</v>
+      </c>
+      <c r="EJ1">
+        <v>139</v>
+      </c>
+      <c r="EK1">
+        <v>140</v>
+      </c>
+      <c r="EL1">
+        <v>141</v>
+      </c>
+      <c r="EM1">
+        <v>142</v>
+      </c>
+      <c r="EN1">
+        <v>143</v>
+      </c>
+      <c r="EO1">
+        <v>144</v>
+      </c>
+      <c r="EP1">
+        <v>145</v>
+      </c>
+      <c r="EQ1">
+        <v>146</v>
+      </c>
+      <c r="ER1">
+        <v>147</v>
+      </c>
+      <c r="ES1">
+        <v>148</v>
+      </c>
+      <c r="ET1">
+        <v>149</v>
+      </c>
+      <c r="EU1">
+        <v>150</v>
+      </c>
+      <c r="EV1">
+        <v>151</v>
+      </c>
+      <c r="EW1">
+        <v>152</v>
+      </c>
+      <c r="EX1">
+        <v>153</v>
+      </c>
+      <c r="EY1">
+        <v>154</v>
+      </c>
+      <c r="EZ1">
+        <v>155</v>
+      </c>
+      <c r="FA1">
+        <v>156</v>
+      </c>
+      <c r="FB1">
+        <v>157</v>
+      </c>
+      <c r="FC1">
+        <v>158</v>
+      </c>
+      <c r="FD1">
+        <v>159</v>
+      </c>
+      <c r="FE1">
+        <v>160</v>
+      </c>
+      <c r="FF1">
+        <v>161</v>
+      </c>
+      <c r="FG1">
+        <v>162</v>
+      </c>
+      <c r="FH1">
+        <v>163</v>
+      </c>
+      <c r="FI1">
+        <v>164</v>
+      </c>
+      <c r="FJ1">
+        <v>165</v>
+      </c>
+      <c r="FK1">
+        <v>166</v>
+      </c>
+      <c r="FL1">
+        <v>167</v>
+      </c>
+      <c r="FM1">
+        <v>168</v>
+      </c>
+      <c r="FN1">
+        <v>169</v>
+      </c>
+      <c r="FO1">
+        <v>170</v>
+      </c>
+      <c r="FP1">
+        <v>171</v>
+      </c>
+      <c r="FQ1">
+        <v>172</v>
+      </c>
+      <c r="FR1">
+        <v>173</v>
+      </c>
+      <c r="FS1">
+        <v>174</v>
+      </c>
+      <c r="FT1">
+        <v>175</v>
+      </c>
+      <c r="FU1">
+        <v>176</v>
+      </c>
+      <c r="FV1">
+        <v>177</v>
+      </c>
+      <c r="FW1">
+        <v>178</v>
+      </c>
+      <c r="FX1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:180" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2">
+        <v>0.02</v>
+      </c>
+      <c r="C2">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>0.02</v>
+      </c>
+      <c r="E2">
+        <v>0.02</v>
+      </c>
+      <c r="F2">
+        <v>0.02</v>
+      </c>
+      <c r="G2">
+        <v>0.02</v>
+      </c>
+      <c r="H2">
+        <v>0.02</v>
+      </c>
+      <c r="I2">
+        <v>0.02</v>
+      </c>
+      <c r="J2">
+        <v>0.02</v>
+      </c>
+      <c r="K2">
+        <v>0.02</v>
+      </c>
+      <c r="L2">
+        <v>0.02</v>
+      </c>
+      <c r="M2">
+        <v>0.02</v>
+      </c>
+      <c r="N2">
+        <v>0.02</v>
+      </c>
+      <c r="O2">
+        <v>0.02</v>
+      </c>
+      <c r="P2">
+        <v>0.02</v>
+      </c>
+      <c r="Q2">
+        <v>0.02</v>
+      </c>
+      <c r="R2">
+        <v>0.02</v>
+      </c>
+      <c r="S2">
+        <v>0.02</v>
+      </c>
+      <c r="T2">
+        <v>0.02</v>
+      </c>
+      <c r="U2">
+        <v>0.02</v>
+      </c>
+      <c r="V2">
+        <v>0.02</v>
+      </c>
+      <c r="W2">
+        <v>0.02</v>
+      </c>
+      <c r="X2">
+        <v>0.02</v>
+      </c>
+      <c r="Y2">
+        <v>0.02</v>
+      </c>
+      <c r="Z2">
+        <v>0.02</v>
+      </c>
+      <c r="AA2">
+        <v>0.02</v>
+      </c>
+      <c r="AB2">
+        <v>0.02</v>
+      </c>
+      <c r="AC2">
+        <v>0.02</v>
+      </c>
+      <c r="AD2">
+        <v>0.02</v>
+      </c>
+      <c r="AE2">
+        <v>0.02</v>
+      </c>
+      <c r="AF2">
+        <v>0.02</v>
+      </c>
+      <c r="AG2">
+        <v>0.02</v>
+      </c>
+      <c r="AH2">
+        <v>0.02</v>
+      </c>
+      <c r="AI2">
+        <v>0.02</v>
+      </c>
+      <c r="AJ2">
+        <v>0.02</v>
+      </c>
+      <c r="AK2">
+        <v>0.02</v>
+      </c>
+      <c r="AL2">
+        <v>0.02</v>
+      </c>
+      <c r="AM2">
+        <v>0.02</v>
+      </c>
+      <c r="AN2">
+        <v>0.02</v>
+      </c>
+      <c r="AO2">
+        <v>0.02</v>
+      </c>
+      <c r="AP2">
+        <v>0.02</v>
+      </c>
+      <c r="AQ2">
+        <v>0.02</v>
+      </c>
+      <c r="AR2">
+        <v>0.02</v>
+      </c>
+      <c r="AS2">
+        <v>0.02</v>
+      </c>
+      <c r="AT2">
+        <v>0.02</v>
+      </c>
+      <c r="AU2">
+        <v>0.02</v>
+      </c>
+      <c r="AV2">
+        <v>0.02</v>
+      </c>
+      <c r="AW2">
+        <v>0.02</v>
+      </c>
+      <c r="AX2">
+        <v>0.02</v>
+      </c>
+      <c r="AY2">
+        <v>0.02</v>
+      </c>
+      <c r="AZ2">
+        <v>0.02</v>
+      </c>
+      <c r="BA2">
+        <v>0.02</v>
+      </c>
+      <c r="BB2">
+        <v>0.02</v>
+      </c>
+      <c r="BC2">
+        <v>0.02</v>
+      </c>
+      <c r="BD2">
+        <v>0.02</v>
+      </c>
+      <c r="BE2">
+        <v>0.02</v>
+      </c>
+      <c r="BF2">
+        <v>0.02</v>
+      </c>
+      <c r="BG2">
+        <v>0.02</v>
+      </c>
+      <c r="BH2">
+        <v>0.02</v>
+      </c>
+      <c r="BI2">
+        <v>0.02</v>
+      </c>
+      <c r="BJ2">
+        <v>0.02</v>
+      </c>
+      <c r="BK2">
+        <v>0.02</v>
+      </c>
+      <c r="BL2">
+        <v>0.02</v>
+      </c>
+      <c r="BM2">
+        <v>0.02</v>
+      </c>
+      <c r="BN2">
+        <v>0.02</v>
+      </c>
+      <c r="BO2">
+        <v>0.02</v>
+      </c>
+      <c r="BP2">
+        <v>0.02</v>
+      </c>
+      <c r="BQ2">
+        <v>0.02</v>
+      </c>
+      <c r="BR2">
+        <v>0.02</v>
+      </c>
+      <c r="BS2">
+        <v>0.02</v>
+      </c>
+      <c r="BT2">
+        <v>0.02</v>
+      </c>
+      <c r="BU2">
+        <v>0.02</v>
+      </c>
+      <c r="BV2">
+        <v>0.02</v>
+      </c>
+      <c r="BW2">
+        <v>0.02</v>
+      </c>
+      <c r="BX2">
+        <v>0.02</v>
+      </c>
+      <c r="BY2">
+        <v>0.02</v>
+      </c>
+      <c r="BZ2">
+        <v>0.02</v>
+      </c>
+      <c r="CA2">
+        <v>0.02</v>
+      </c>
+      <c r="CB2">
+        <v>0.02</v>
+      </c>
+      <c r="CC2">
+        <v>0.02</v>
+      </c>
+      <c r="CD2">
+        <v>0.02</v>
+      </c>
+      <c r="CE2">
+        <v>0.02</v>
+      </c>
+      <c r="CF2">
+        <v>0.02</v>
+      </c>
+      <c r="CG2">
+        <v>0.02</v>
+      </c>
+      <c r="CH2">
+        <v>0.02</v>
+      </c>
+      <c r="CI2">
+        <v>0.02</v>
+      </c>
+      <c r="CJ2">
+        <v>0.02</v>
+      </c>
+      <c r="CK2">
+        <v>0.02</v>
+      </c>
+      <c r="CL2">
+        <v>0.02</v>
+      </c>
+      <c r="CM2">
+        <v>0.02</v>
+      </c>
+      <c r="CN2">
+        <v>0.02</v>
+      </c>
+      <c r="CO2">
+        <v>0.02</v>
+      </c>
+      <c r="CP2">
+        <v>0.02</v>
+      </c>
+      <c r="CQ2">
+        <v>0.02</v>
+      </c>
+      <c r="CR2">
+        <v>0.02</v>
+      </c>
+      <c r="CS2">
+        <v>0.02</v>
+      </c>
+      <c r="CT2">
+        <v>0.02</v>
+      </c>
+      <c r="CU2">
+        <v>0.02</v>
+      </c>
+      <c r="CV2">
+        <v>0.02</v>
+      </c>
+      <c r="CW2">
+        <v>0.02</v>
+      </c>
+      <c r="CX2">
+        <v>0.02</v>
+      </c>
+      <c r="CY2">
+        <v>0.02</v>
+      </c>
+      <c r="CZ2">
+        <v>0.02</v>
+      </c>
+      <c r="DA2">
+        <v>0.02</v>
+      </c>
+      <c r="DB2">
+        <v>0.02</v>
+      </c>
+      <c r="DC2">
+        <v>0.02</v>
+      </c>
+      <c r="DD2">
+        <v>0.02</v>
+      </c>
+      <c r="DE2">
+        <v>0.02</v>
+      </c>
+      <c r="DF2">
+        <v>0.02</v>
+      </c>
+      <c r="DG2">
+        <v>0.02</v>
+      </c>
+      <c r="DH2">
+        <v>0.02</v>
+      </c>
+      <c r="DI2">
+        <v>0.02</v>
+      </c>
+      <c r="DJ2">
+        <v>0.02</v>
+      </c>
+      <c r="DK2">
+        <v>0.02</v>
+      </c>
+      <c r="DL2">
+        <v>0.02</v>
+      </c>
+      <c r="DM2">
+        <v>0.02</v>
+      </c>
+      <c r="DN2">
+        <v>0.02</v>
+      </c>
+      <c r="DO2">
+        <v>0.02</v>
+      </c>
+      <c r="DP2">
+        <v>0.02</v>
+      </c>
+      <c r="DQ2">
+        <v>0.02</v>
+      </c>
+      <c r="DR2">
+        <v>0.02</v>
+      </c>
+      <c r="DS2">
+        <v>0.02</v>
+      </c>
+      <c r="DT2">
+        <v>0.02</v>
+      </c>
+      <c r="DU2">
+        <v>0.02</v>
+      </c>
+      <c r="DV2">
+        <v>0.02</v>
+      </c>
+      <c r="DW2">
+        <v>0.02</v>
+      </c>
+      <c r="DX2">
+        <v>0.02</v>
+      </c>
+      <c r="DY2">
+        <v>0.02</v>
+      </c>
+      <c r="DZ2">
+        <v>0.02</v>
+      </c>
+      <c r="EA2">
+        <v>0.02</v>
+      </c>
+      <c r="EB2">
+        <v>0.02</v>
+      </c>
+      <c r="EC2">
+        <v>0.02</v>
+      </c>
+      <c r="ED2">
+        <v>0.02</v>
+      </c>
+      <c r="EE2">
+        <v>0.02</v>
+      </c>
+      <c r="EF2">
+        <v>0.02</v>
+      </c>
+      <c r="EG2">
+        <v>0.02</v>
+      </c>
+      <c r="EH2">
+        <v>0.02</v>
+      </c>
+      <c r="EI2">
+        <v>0.02</v>
+      </c>
+      <c r="EJ2">
+        <v>0.02</v>
+      </c>
+      <c r="EK2">
+        <v>0.02</v>
+      </c>
+      <c r="EL2">
+        <v>0.02</v>
+      </c>
+      <c r="EM2">
+        <v>0.02</v>
+      </c>
+      <c r="EN2">
+        <v>0.02</v>
+      </c>
+      <c r="EO2">
+        <v>0.02</v>
+      </c>
+      <c r="EP2">
+        <v>0.02</v>
+      </c>
+      <c r="EQ2">
+        <v>0.02</v>
+      </c>
+      <c r="ER2">
+        <v>0.02</v>
+      </c>
+      <c r="ES2">
+        <v>0.02</v>
+      </c>
+      <c r="ET2">
+        <v>0.02</v>
+      </c>
+      <c r="EU2">
+        <v>0.02</v>
+      </c>
+      <c r="EV2">
+        <v>0.02</v>
+      </c>
+      <c r="EW2">
+        <v>0.02</v>
+      </c>
+      <c r="EX2">
+        <v>0.02</v>
+      </c>
+      <c r="EY2">
+        <v>0.02</v>
+      </c>
+      <c r="EZ2">
+        <v>0.02</v>
+      </c>
+      <c r="FA2">
+        <v>0.02</v>
+      </c>
+      <c r="FB2">
+        <v>0.02</v>
+      </c>
+      <c r="FC2">
+        <v>0.02</v>
+      </c>
+      <c r="FD2">
+        <v>0.02</v>
+      </c>
+      <c r="FE2">
+        <v>0.02</v>
+      </c>
+      <c r="FF2">
+        <v>0.02</v>
+      </c>
+      <c r="FG2">
+        <v>0.02</v>
+      </c>
+      <c r="FH2">
+        <v>0.02</v>
+      </c>
+      <c r="FI2">
+        <v>0.02</v>
+      </c>
+      <c r="FJ2">
+        <v>0.02</v>
+      </c>
+      <c r="FK2">
+        <v>0.02</v>
+      </c>
+      <c r="FL2">
+        <v>0.02</v>
+      </c>
+      <c r="FM2">
+        <v>0.02</v>
+      </c>
+      <c r="FN2">
+        <v>0.02</v>
+      </c>
+      <c r="FO2">
+        <v>0.02</v>
+      </c>
+      <c r="FP2">
+        <v>0.02</v>
+      </c>
+      <c r="FQ2">
+        <v>0.02</v>
+      </c>
+      <c r="FR2">
+        <v>0.02</v>
+      </c>
+      <c r="FS2">
+        <v>0.02</v>
+      </c>
+      <c r="FT2">
+        <v>0.02</v>
+      </c>
+      <c r="FU2">
+        <v>0.02</v>
+      </c>
+      <c r="FV2">
+        <v>0.02</v>
+      </c>
+      <c r="FW2">
+        <v>0.02</v>
+      </c>
+      <c r="FX2">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
